--- a/boot_camp_enrollment/output/boot_camp_program_profile.xlsx
+++ b/boot_camp_enrollment/output/boot_camp_program_profile.xlsx
@@ -19,7 +19,7 @@
     <t>BootcampName</t>
   </si>
   <si>
-    <t>Enrollees</t>
+    <t>Campers</t>
   </si>
   <si>
     <t>Recommendations</t>
